--- a/src/assets/Template Excel/Layout_Max_Capacity.xlsx
+++ b/src/assets/Template Excel/Layout_Max_Capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Worktools SRI\Frontend\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210485E3-7E01-4717-B6A6-D5033889F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E19C25-6638-4ADE-881E-304E66A29E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAX CAPACITY DATA" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>PRODUCT_ID</t>
   </si>
@@ -39,12 +39,15 @@
   <si>
     <t>CAPACITY_SHIFT_3</t>
   </si>
+  <si>
+    <t>NOMOR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -56,6 +59,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -72,7 +83,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -108,16 +119,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,86 +494,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/Template Excel/Layout_Max_Capacity.xlsx
+++ b/src/assets/Template Excel/Layout_Max_Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Worktools SRI\Frontend\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E19C25-6638-4ADE-881E-304E66A29E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE567B-0F0C-42BE-B0BC-612D961B6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>PRODUCT_ID</t>
-  </si>
-  <si>
-    <t>MACHINECURINGTYPE_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CYCLE_TIME</t>
   </si>
@@ -41,6 +35,15 @@
   </si>
   <si>
     <t>NOMOR</t>
+  </si>
+  <si>
+    <t>PRODUCT_PART_NUMBER</t>
+  </si>
+  <si>
+    <t>MACHINECURINGTYPE</t>
+  </si>
+  <si>
+    <t>MAX_CAPACITY_ID</t>
   </si>
 </sst>
 </file>
@@ -58,12 +61,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,16 +152,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,133 +502,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.90625" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/Template Excel/Layout_Max_Capacity.xlsx
+++ b/src/assets/Template Excel/Layout_Max_Capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Worktools SRI\Frontend\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CE567B-0F0C-42BE-B0BC-612D961B6C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D582A7-4DB0-4609-B92F-8296240330BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,13 +37,13 @@
     <t>NOMOR</t>
   </si>
   <si>
-    <t>PRODUCT_PART_NUMBER</t>
-  </si>
-  <si>
     <t>MACHINECURINGTYPE</t>
   </si>
   <si>
     <t>MAX_CAPACITY_ID</t>
+  </si>
+  <si>
+    <t>PART_NUMBER</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -523,13 +523,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
